--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="491">
   <si>
     <t>API Mode</t>
   </si>
@@ -1461,6 +1461,60 @@
   </si>
   <si>
     <t>RMA-YIJX-1-3</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-001</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-002</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLc8AAE</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLc9AAE</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcAAAU</t>
+  </si>
+  <si>
+    <t>RMA-HKS7-1-3</t>
+  </si>
+  <si>
+    <t>RMA-391D-001</t>
+  </si>
+  <si>
+    <t>RMA-391D-002</t>
+  </si>
+  <si>
+    <t>RMA-391D-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcIAAU</t>
+  </si>
+  <si>
+    <t>RMA-391D-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcJAAU</t>
+  </si>
+  <si>
+    <t>RMA-391D-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLcKAAU</t>
+  </si>
+  <si>
+    <t>RMA-391D-1-3</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="551" x14ac:knownFonts="1">
+  <fonts count="575" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,6 +1544,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -4788,7 +4986,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="275">
+  <borders count="287">
     <border>
       <left/>
       <right/>
@@ -5618,11 +5816,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="551">
+  <cellXfs count="575">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -6172,8 +6406,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="272" fillId="0" fontId="546" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="547" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="273" fillId="0" fontId="548" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="550" fillId="0" borderId="274" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="549" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="274" fillId="0" fontId="550" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="551" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="275" fillId="0" fontId="552" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="553" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="276" fillId="0" fontId="554" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="555" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="277" fillId="0" fontId="556" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="557" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="278" fillId="0" fontId="558" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="559" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="279" fillId="0" fontId="560" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="561" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="280" fillId="0" fontId="562" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="563" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="281" fillId="0" fontId="564" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="565" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="282" fillId="0" fontId="566" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="567" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="283" fillId="0" fontId="568" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="569" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="284" fillId="0" fontId="570" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="571" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="285" fillId="0" fontId="572" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="574" fillId="0" borderId="286" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6961,11 +7219,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.10546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.03125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.44921875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7015,10 +7273,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="F2" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -7027,7 +7285,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7044,10 +7302,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="F3" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -7056,7 +7314,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7073,10 +7331,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -7085,7 +7343,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="500">
   <si>
     <t>API Mode</t>
   </si>
@@ -1515,6 +1515,33 @@
   </si>
   <si>
     <t>RMA-391D-1-3</t>
+  </si>
+  <si>
+    <t>RMA-478W-001</t>
+  </si>
+  <si>
+    <t>RMA-478W-002</t>
+  </si>
+  <si>
+    <t>RMA-478W-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAPAA2</t>
+  </si>
+  <si>
+    <t>RMA-478W-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAQAA2</t>
+  </si>
+  <si>
+    <t>RMA-478W-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMARAA2</t>
+  </si>
+  <si>
+    <t>RMA-478W-1-3</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="575" x14ac:knownFonts="1">
+  <fonts count="587" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1544,6 +1571,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -4986,7 +5085,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="287">
+  <borders count="293">
     <border>
       <left/>
       <right/>
@@ -5852,11 +5951,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="575">
+  <cellXfs count="587">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -6430,8 +6547,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="284" fillId="0" fontId="570" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="571" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="285" fillId="0" fontId="572" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="574" fillId="0" borderId="286" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="573" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="286" fillId="0" fontId="574" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="575" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="287" fillId="0" fontId="576" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="577" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="288" fillId="0" fontId="578" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="579" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="289" fillId="0" fontId="580" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="581" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="290" fillId="0" fontId="582" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="583" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="291" fillId="0" fontId="584" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="586" fillId="0" borderId="292" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7219,11 +7348,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.9375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.44921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.7890625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7273,10 +7402,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -7285,7 +7414,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7302,10 +7431,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="F3" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -7314,7 +7443,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7331,10 +7460,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F4" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -7343,7 +7472,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="527">
   <si>
     <t>API Mode</t>
   </si>
@@ -1542,6 +1542,87 @@
   </si>
   <si>
     <t>RMA-478W-1-3</t>
+  </si>
+  <si>
+    <t>RMA-K3US-001</t>
+  </si>
+  <si>
+    <t>RMA-K3US-002</t>
+  </si>
+  <si>
+    <t>RMA-K3US-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrTAAU</t>
+  </si>
+  <si>
+    <t>RMA-K3US-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrUAAU</t>
+  </si>
+  <si>
+    <t>RMA-K3US-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrVAAU</t>
+  </si>
+  <si>
+    <t>RMA-K3US-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-001</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-002</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrdAAE</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMreAAE</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrfAAE</t>
+  </si>
+  <si>
+    <t>RMA-VCUF-1-3</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-001</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-002</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMsgAAE</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMshAAE</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMsiAAE</t>
+  </si>
+  <si>
+    <t>RMA-PU7Q-1-3</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="587" x14ac:knownFonts="1">
+  <fonts count="623" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1571,6 +1652,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -5085,7 +5382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="293">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -5969,11 +6266,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="587">
+  <cellXfs count="623">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -6559,8 +6910,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="290" fillId="0" fontId="582" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="583" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="291" fillId="0" fontId="584" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="586" fillId="0" borderId="292" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="585" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="292" fillId="0" fontId="586" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="587" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="293" fillId="0" fontId="588" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="589" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="294" fillId="0" fontId="590" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="591" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="295" fillId="0" fontId="592" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="593" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="296" fillId="0" fontId="594" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="595" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="297" fillId="0" fontId="596" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="597" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="298" fillId="0" fontId="598" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="599" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="299" fillId="0" fontId="600" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="601" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="300" fillId="0" fontId="602" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="603" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="301" fillId="0" fontId="604" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="605" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="302" fillId="0" fontId="606" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="607" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="303" fillId="0" fontId="608" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="609" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="304" fillId="0" fontId="610" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="611" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="305" fillId="0" fontId="612" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="613" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="306" fillId="0" fontId="614" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="615" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="307" fillId="0" fontId="616" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="617" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="308" fillId="0" fontId="618" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="619" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="309" fillId="0" fontId="620" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="622" fillId="0" borderId="310" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7348,11 +7735,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.9375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.7890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.01171875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7402,10 +7789,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -7414,7 +7801,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7431,10 +7818,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="F3" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -7443,7 +7830,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7460,10 +7847,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="F4" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -7472,7 +7859,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="536">
   <si>
     <t>API Mode</t>
   </si>
@@ -1623,6 +1623,33 @@
   </si>
   <si>
     <t>RMA-PU7Q-1-3</t>
+  </si>
+  <si>
+    <t>RMA-Q190-001</t>
+  </si>
+  <si>
+    <t>RMA-Q190-002</t>
+  </si>
+  <si>
+    <t>RMA-Q190-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNY8AAM</t>
+  </si>
+  <si>
+    <t>RMA-Q190-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNY9AAM</t>
+  </si>
+  <si>
+    <t>RMA-Q190-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNYAAA2</t>
+  </si>
+  <si>
+    <t>RMA-Q190-1-3</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1659,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="623" x14ac:knownFonts="1">
+  <fonts count="635" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1652,6 +1679,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -5382,7 +5481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="311">
+  <borders count="317">
     <border>
       <left/>
       <right/>
@@ -6320,11 +6419,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="623">
+  <cellXfs count="635">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -6946,8 +7063,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="308" fillId="0" fontId="618" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="619" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="309" fillId="0" fontId="620" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="622" fillId="0" borderId="310" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="621" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="310" fillId="0" fontId="622" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="623" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="311" fillId="0" fontId="624" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="625" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="312" fillId="0" fontId="626" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="627" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="313" fillId="0" fontId="628" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="629" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="314" fillId="0" fontId="630" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="631" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="315" fillId="0" fontId="632" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="634" fillId="0" borderId="316" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7735,11 +7864,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4609375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.01171875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.52734375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7789,10 +7918,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F2" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -7801,7 +7930,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7818,10 +7947,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="F3" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -7830,7 +7959,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7847,10 +7976,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="F4" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -7859,7 +7988,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="554">
   <si>
     <t>API Mode</t>
   </si>
@@ -1650,6 +1650,60 @@
   </si>
   <si>
     <t>RMA-Q190-1-3</t>
+  </si>
+  <si>
+    <t>RMA-WQSG-001</t>
+  </si>
+  <si>
+    <t>RMA-WQSG-002</t>
+  </si>
+  <si>
+    <t>RMA-WQSG-003</t>
+  </si>
+  <si>
+    <t>RMA-32R9-001</t>
+  </si>
+  <si>
+    <t>RMA-32R9-002</t>
+  </si>
+  <si>
+    <t>RMA-32R9-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg3AAE</t>
+  </si>
+  <si>
+    <t>RMA-32R9-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg4AAE</t>
+  </si>
+  <si>
+    <t>RMA-32R9-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg5AAE</t>
+  </si>
+  <si>
+    <t>RMA-32R9-1-3</t>
+  </si>
+  <si>
+    <t>RMA-B9AC-001</t>
+  </si>
+  <si>
+    <t>RMA-B9AC-002</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg8AAE</t>
+  </si>
+  <si>
+    <t>RMA-B9AC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNg9AAE</t>
+  </si>
+  <si>
+    <t>RMA-B9AC-1-2</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1713,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="635" x14ac:knownFonts="1">
+  <fonts count="663" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1679,6 +1733,174 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -5481,7 +5703,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="317">
+  <borders count="331">
     <border>
       <left/>
       <right/>
@@ -6437,11 +6659,53 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="635">
+  <cellXfs count="663">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -7075,8 +7339,36 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="314" fillId="0" fontId="630" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="631" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="315" fillId="0" fontId="632" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="634" fillId="0" borderId="316" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="633" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="316" fillId="0" fontId="634" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="635" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="317" fillId="0" fontId="636" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="637" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="318" fillId="0" fontId="638" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="639" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="319" fillId="0" fontId="640" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="641" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="320" fillId="0" fontId="642" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="643" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="321" fillId="0" fontId="644" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="645" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="322" fillId="0" fontId="646" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="647" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="323" fillId="0" fontId="648" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="649" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="324" fillId="0" fontId="650" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="651" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="325" fillId="0" fontId="652" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="653" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="326" fillId="0" fontId="654" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="655" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="327" fillId="0" fontId="656" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="657" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="328" fillId="0" fontId="658" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="659" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="329" fillId="0" fontId="660" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="662" fillId="0" borderId="330" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7864,11 +8156,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4609375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.390625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.52734375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.68359375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -7918,10 +8210,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -7930,7 +8222,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7947,10 +8239,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="F3" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="G3" t="s">
         <v>68</v>
@@ -7959,7 +8251,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7976,10 +8268,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="F4" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -7988,7 +8280,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
